--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-P2ry12.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>6.66513</v>
+        <v>0.2663136666666667</v>
       </c>
       <c r="N2">
-        <v>19.99539</v>
+        <v>0.798941</v>
       </c>
       <c r="O2">
-        <v>0.9556042431346229</v>
+        <v>0.2749240117919797</v>
       </c>
       <c r="P2">
-        <v>0.9556042431346229</v>
+        <v>0.2749240117919797</v>
       </c>
       <c r="Q2">
-        <v>1226.80176144312</v>
+        <v>17.02042130819189</v>
       </c>
       <c r="R2">
-        <v>11041.21585298808</v>
+        <v>153.183791773727</v>
       </c>
       <c r="S2">
-        <v>0.6221466921089097</v>
+        <v>0.1118370785892944</v>
       </c>
       <c r="T2">
-        <v>0.6221466921089098</v>
+        <v>0.1118370785892944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3096506666666667</v>
+        <v>0.7023673333333335</v>
       </c>
       <c r="N3">
-        <v>0.928952</v>
+        <v>2.107102</v>
       </c>
       <c r="O3">
-        <v>0.04439575686537718</v>
+        <v>0.7250759882080203</v>
       </c>
       <c r="P3">
-        <v>0.04439575686537718</v>
+        <v>0.7250759882080203</v>
       </c>
       <c r="Q3">
-        <v>56.99513487339378</v>
+        <v>44.88912670564378</v>
       </c>
       <c r="R3">
-        <v>512.956213860544</v>
+        <v>404.002140350794</v>
       </c>
       <c r="S3">
-        <v>0.02890388304143885</v>
+        <v>0.2949556124540604</v>
       </c>
       <c r="T3">
-        <v>0.02890388304143885</v>
+        <v>0.2949556124540604</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>172.3302</v>
       </c>
       <c r="I4">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J4">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.66513</v>
+        <v>0.2663136666666667</v>
       </c>
       <c r="N4">
-        <v>19.99539</v>
+        <v>0.798941</v>
       </c>
       <c r="O4">
-        <v>0.9556042431346229</v>
+        <v>0.2749240117919797</v>
       </c>
       <c r="P4">
-        <v>0.9556042431346229</v>
+        <v>0.2749240117919797</v>
       </c>
       <c r="Q4">
-        <v>382.867728642</v>
+        <v>15.2979624798</v>
       </c>
       <c r="R4">
-        <v>3445.809557778</v>
+        <v>137.6816623182</v>
       </c>
       <c r="S4">
-        <v>0.1941633101420323</v>
+        <v>0.1005192175405216</v>
       </c>
       <c r="T4">
-        <v>0.1941633101420323</v>
+        <v>0.1005192175405216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J5">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3096506666666667</v>
+        <v>0.7023673333333335</v>
       </c>
       <c r="N5">
-        <v>0.928952</v>
+        <v>2.107102</v>
       </c>
       <c r="O5">
-        <v>0.04439575686537718</v>
+        <v>0.7250759882080203</v>
       </c>
       <c r="P5">
-        <v>0.04439575686537718</v>
+        <v>0.7250759882080203</v>
       </c>
       <c r="Q5">
-        <v>17.7873871056</v>
+        <v>40.34636767560001</v>
       </c>
       <c r="R5">
-        <v>160.0864839504</v>
+        <v>363.1173090804</v>
       </c>
       <c r="S5">
-        <v>0.009020498989170062</v>
+        <v>0.2651062397824973</v>
       </c>
       <c r="T5">
-        <v>0.009020498989170062</v>
+        <v>0.2651062397824974</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,46 +782,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H6">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I6">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J6">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>6.66513</v>
+        <v>0.2663136666666667</v>
       </c>
       <c r="N6">
-        <v>19.99539</v>
+        <v>0.798941</v>
       </c>
       <c r="O6">
-        <v>0.9556042431346229</v>
+        <v>0.2749240117919797</v>
       </c>
       <c r="P6">
-        <v>0.9556042431346229</v>
+        <v>0.2749240117919797</v>
       </c>
       <c r="Q6">
-        <v>274.67223123171</v>
+        <v>9.522145019291667</v>
       </c>
       <c r="R6">
-        <v>2472.050081085391</v>
+        <v>85.69930517362501</v>
       </c>
       <c r="S6">
-        <v>0.1392942408836809</v>
+        <v>0.0625677156621636</v>
       </c>
       <c r="T6">
-        <v>0.1392942408836809</v>
+        <v>0.06256771566216361</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H7">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I7">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J7">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3096506666666667</v>
+        <v>0.7023673333333335</v>
       </c>
       <c r="N7">
-        <v>0.928952</v>
+        <v>2.107102</v>
       </c>
       <c r="O7">
-        <v>0.04439575686537718</v>
+        <v>0.7250759882080203</v>
       </c>
       <c r="P7">
-        <v>0.04439575686537718</v>
+        <v>0.7250759882080203</v>
       </c>
       <c r="Q7">
-        <v>12.76080729343911</v>
+        <v>25.11340739108334</v>
       </c>
       <c r="R7">
-        <v>114.847265640952</v>
+        <v>226.02066651975</v>
       </c>
       <c r="S7">
-        <v>0.006471374834768269</v>
+        <v>0.1650141359714625</v>
       </c>
       <c r="T7">
-        <v>0.00647137483476827</v>
+        <v>0.1650141359714626</v>
       </c>
     </row>
   </sheetData>
